--- a/projects.xlsx
+++ b/projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naumann\Dropbox (Privat)\lennardnau.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45920C1C-2C9B-4DE5-AB6B-EF749A9EF0AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE5C008-ACB4-4545-883A-5359A5B1533B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{3CBB864D-7064-4EC0-B319-6895944E5474}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Power Law Distributions in Intrastate Conflict Intensity Dynamics</t>
   </si>
   <si>
-    <t>Other writing</t>
-  </si>
-  <si>
     <t>Christoph Trinn</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Conflict Management and Peace Science, 40(4)</t>
+  </si>
+  <si>
+    <t>Other work</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,261 +567,261 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
       <c r="K1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
         <v>39</v>
       </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>40</v>
       </c>
-      <c r="J3" t="s">
-        <v>41</v>
-      </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6">
         <v>2022</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
       </c>
       <c r="F7">
         <v>2024</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
       </c>
       <c r="F8">
         <v>2022</v>
       </c>
       <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
         <v>14</v>
       </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naumann\Dropbox (Privat)\lennardnau.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE5C008-ACB4-4545-883A-5359A5B1533B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7369FD3D-66AF-4EC6-B83E-F9E2704321D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{3CBB864D-7064-4EC0-B319-6895944E5474}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="8484" xr2:uid="{3CBB864D-7064-4EC0-B319-6895944E5474}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/projects.xlsx
+++ b/projects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naumann\Dropbox (Privat)\lennardnau.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7369FD3D-66AF-4EC6-B83E-F9E2704321D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184FC822-DEE1-41FD-8996-64715A7CAF62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12600" windowHeight="8484" xr2:uid="{3CBB864D-7064-4EC0-B319-6895944E5474}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>Intergroup Contact, Empathy Education, and Refugee-Native Integration: Evidence from a Field Experiment in Lebanon</t>
   </si>
   <si>
-    <t>Intergroup contact and empathy education are widely used strategies to foster trust, tolerance, and cooperation across group lines in deeply divided societies. We test these approaches directly against each other in the context of refugee-host relations in Lebanon, where Syrian refugees comprise a quarter of the population. Our study embeds a popular, existing family psycho-social support (FPSS) program targeting vul- nerable youth in a field experiment, where Syrian and Lebanese youth were randomly assigned to either mixed (Lebanese-Syrian) or homogeneous (Syrian or Lebanese) FPSS classrooms, and to an empathy education or placebo curicculum focused on health and nutrition. We find that intergroup contact had little effect on prejudice, and actually somewhat reduced study participant willingness to engage in future intergroup activi- ties — an effect concentrated among Lebanese participants, and amplified when combining contact and empathy education. We find evidence consistent with dissonance, status threat, and negative experiences for dominant-group members. Empathy educa- tion, by contrast, modestly reduced prejudice and increased support for inclusive poli- cies without leading to negative behavioral effects. We find no evidence of spillovers to study participants’ parents. These findings suggest that empathy education may more be more effective than intergroup contact in improving migrant-relations in conflict settings.</t>
-  </si>
-  <si>
     <t>Salma Mousa, Alex Scacco</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Other work</t>
+  </si>
+  <si>
+    <t>Intergroup contact and empathy education are widely believed to foster trust, tolerance and cooperation across group lines in deeply divided societies. We test these approaches independently and jointly in the context of refugee-host relations in Lebanon, where Syrian refugees comprise a quarter of the population. Our study embeds a popular existing family psycho-social support (FPSS) program targeting vulnerable youth in a field experiment, where Syrian and Lebanese youth were randomly assigned to either heterogeneous (Lebanese-Syrian) or homogeneous (Lebanese or Syrian) FPSS groups and to an empathy education or placebo curriculum focused on physical health and nutrition. We find that contact does not meaningfully change attitudes toward the outgroup, and has little effect on participation in future contact, such as attending events celebrating the outgroup's culture 1-2 months after treatment. By contrast, we find that empathy education consistently improves both affect and policy attitudes toward the outgroup, and has positive behavioral effects. We find no evidence of positive interaction effects between the two treatments. In fact, combining contact and empathy training is less effective than either treatment alone. Our study points to empathy education as a cheaper, more scalable, and potentially more effective strategy for building social cohesion in conflict settings than intergroup contact.</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +567,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
         <v>18</v>
@@ -576,7 +576,7 @@
         <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -587,22 +587,22 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -622,31 +622,31 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
       <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>39</v>
       </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -654,74 +654,74 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -733,7 +733,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6">
         <v>2022</v>
@@ -745,53 +745,53 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
       </c>
       <c r="F7">
         <v>2024</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -815,13 +815,13 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
